--- a/doc/sprint2/Routing table.xlsx
+++ b/doc/sprint2/Routing table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saol0\Documents\rcomp_g03\doc\sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saol0\Documents\rcomp-20-21-dl-g3\doc\sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA7BEE8-BF4F-41A9-BA0C-0043D8A01959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E638DC-690D-4E5C-BD58-12822C7CBC06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8775" yWindow="8430" windowWidth="17040" windowHeight="9810" xr2:uid="{D5E84F95-B354-4BE5-B35A-E3D7C9B1BB6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5E84F95-B354-4BE5-B35A-E3D7C9B1BB6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>B4 End user outlets on the ground floor: 40 nodes</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Network</t>
   </si>
   <si>
-    <t>10.126.112.0/24</t>
-  </si>
-  <si>
     <t>10.126.113.0/24</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>10.126.116.64/26</t>
   </si>
   <si>
-    <t>255.255.255.64</t>
-  </si>
-  <si>
     <t>10.126.116.128/26</t>
   </si>
   <si>
@@ -177,26 +171,164 @@
     <t>10.126.118.192/27</t>
   </si>
   <si>
-    <t>255.255.255.32</t>
-  </si>
-  <si>
     <t>10.126.118.224/27</t>
   </si>
   <si>
     <t>10.126.119.0/27</t>
   </si>
   <si>
-    <t>255.255.255.16</t>
-  </si>
-  <si>
     <t>10.126.119.32/28</t>
+  </si>
+  <si>
+    <t>Network Brodcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.126.112.0/24 </t>
+  </si>
+  <si>
+    <t>Network Range</t>
+  </si>
+  <si>
+    <t>10.126.112.1 - 10.126.112.254</t>
+  </si>
+  <si>
+    <t>10.126.113.1 - 10.126.113.254</t>
+  </si>
+  <si>
+    <t>10.126.114.1 - 10.126.114.126</t>
+  </si>
+  <si>
+    <t>10.126.115.1 - 10.126.115.126</t>
+  </si>
+  <si>
+    <t>10.126.114.129 - 10.126.114.254</t>
+  </si>
+  <si>
+    <t>10.126.115.129 - 10.126.115.254</t>
+  </si>
+  <si>
+    <t>10.126.116.1 - 10.126.116.62</t>
+  </si>
+  <si>
+    <t>10.126.117.1 - 10.126.117.62</t>
+  </si>
+  <si>
+    <t>10.126.118.1 - 10.126.118.62</t>
+  </si>
+  <si>
+    <t>10.126.116.65 - 10.126.116.126</t>
+  </si>
+  <si>
+    <t>10.126.118.65 - 10.126.118.126</t>
+  </si>
+  <si>
+    <t>10.126.116.129 - 10.126.116.190</t>
+  </si>
+  <si>
+    <t>10.126.117.129 - 10.126.117.190</t>
+  </si>
+  <si>
+    <t>10.126.118.129 - 10.126.118.190</t>
+  </si>
+  <si>
+    <t>10.126.116.193 - 10.126.116.254</t>
+  </si>
+  <si>
+    <t>10.126.117.193 - 10.126.117.254</t>
+  </si>
+  <si>
+    <t>10.126.117.65 - 10.126.117.126</t>
+  </si>
+  <si>
+    <t>10.126.118.193 - 10.126.118.222</t>
+  </si>
+  <si>
+    <t>10.126.118.225 - 10.126.118.254</t>
+  </si>
+  <si>
+    <t>10.126.119.1 - 10.126.119.30</t>
+  </si>
+  <si>
+    <t>10.126.119.33 - 10.126.119.47</t>
+  </si>
+  <si>
+    <t>10.126.112.255</t>
+  </si>
+  <si>
+    <t>10.126.113.255</t>
+  </si>
+  <si>
+    <t>10.126.114.127</t>
+  </si>
+  <si>
+    <t>10.126.114.255</t>
+  </si>
+  <si>
+    <t>10.126.115.127</t>
+  </si>
+  <si>
+    <t>10.126.115.255</t>
+  </si>
+  <si>
+    <t>10.126.116.63</t>
+  </si>
+  <si>
+    <t>10.126.116.127</t>
+  </si>
+  <si>
+    <t>10.126.116.191</t>
+  </si>
+  <si>
+    <t>10.126.116.255</t>
+  </si>
+  <si>
+    <t>10.126.117.63</t>
+  </si>
+  <si>
+    <t>10.126.117.127</t>
+  </si>
+  <si>
+    <t>10.126.117.191</t>
+  </si>
+  <si>
+    <t>10.126.117.255</t>
+  </si>
+  <si>
+    <t>10.126.118.63</t>
+  </si>
+  <si>
+    <t>10.126.118.127</t>
+  </si>
+  <si>
+    <t>10.126.118.191</t>
+  </si>
+  <si>
+    <t>10.126.118.223</t>
+  </si>
+  <si>
+    <t>10.126.118.255</t>
+  </si>
+  <si>
+    <t>10.126.119.31</t>
+  </si>
+  <si>
+    <t>10.126.119.48</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>255.255.255.240</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +342,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +361,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,10 +404,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,57 +723,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92284C1C-2AA2-46C8-B5A1-2B3DDFE292AA}">
-  <dimension ref="C2:G23"/>
+  <dimension ref="C2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="82.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>250</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>325</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -631,30 +797,42 @@
         <v>326</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>120</v>
+      </c>
+      <c r="E5" s="1">
+        <v>327</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2">
-        <v>120</v>
-      </c>
-      <c r="E5" s="2">
-        <v>327</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
@@ -665,30 +843,42 @@
         <v>328</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1">
+        <v>329</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>70</v>
-      </c>
-      <c r="E7" s="2">
-        <v>329</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -699,30 +889,42 @@
         <v>330</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1">
+        <v>331</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>60</v>
-      </c>
-      <c r="E9" s="2">
-        <v>331</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
@@ -733,30 +935,42 @@
         <v>332</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1">
+        <v>333</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2">
-        <v>333</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
@@ -767,30 +981,42 @@
         <v>334</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>44</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>335</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
@@ -801,30 +1027,42 @@
         <v>336</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
         <v>40</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>337</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -835,30 +1073,42 @@
         <v>338</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>40</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>339</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,30 +1119,42 @@
         <v>340</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>35</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>341</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
@@ -903,30 +1165,42 @@
         <v>342</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>24</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>343</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
@@ -937,27 +1211,39 @@
         <v>344</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
+        <v>345</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2">
-        <v>345</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>50</v>
+      <c r="G23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -966,5 +1252,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>